--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>249.144208176637</v>
+        <v>250.7027893333334</v>
       </c>
       <c r="H2">
-        <v>249.144208176637</v>
+        <v>752.108368</v>
       </c>
       <c r="I2">
-        <v>0.8118679759891599</v>
+        <v>0.8058600807320524</v>
       </c>
       <c r="J2">
-        <v>0.8118679759891599</v>
+        <v>0.8058600807320525</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.0528430057841</v>
+        <v>13.27954633333333</v>
       </c>
       <c r="N2">
-        <v>13.0528430057841</v>
+        <v>39.838639</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9815483547588711</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9815483547588713</v>
       </c>
       <c r="Q2">
-        <v>3252.040235130034</v>
+        <v>3329.219306847906</v>
       </c>
       <c r="R2">
-        <v>3252.040235130034</v>
+        <v>29962.97376163115</v>
       </c>
       <c r="S2">
-        <v>0.8118679759891599</v>
+        <v>0.7909906364083971</v>
       </c>
       <c r="T2">
-        <v>0.8118679759891599</v>
+        <v>0.7909906364083973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.0741149685622</v>
+        <v>250.7027893333334</v>
       </c>
       <c r="H3">
-        <v>55.0741149685622</v>
+        <v>752.108368</v>
       </c>
       <c r="I3">
-        <v>0.1794659830792477</v>
+        <v>0.8058600807320524</v>
       </c>
       <c r="J3">
-        <v>0.1794659830792477</v>
+        <v>0.8058600807320525</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>13.0528430057841</v>
+        <v>0.1018873333333333</v>
       </c>
       <c r="N3">
-        <v>13.0528430057841</v>
+        <v>0.305662</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.007530930793401502</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.007530930793401503</v>
       </c>
       <c r="Q3">
-        <v>718.8737763671464</v>
+        <v>25.54343866440178</v>
       </c>
       <c r="R3">
-        <v>718.8737763671464</v>
+        <v>229.890947979616</v>
       </c>
       <c r="S3">
-        <v>0.1794659830792477</v>
+        <v>0.006068876497158034</v>
       </c>
       <c r="T3">
-        <v>0.1794659830792477</v>
+        <v>0.006068876497158036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.342992568415489</v>
+        <v>250.7027893333334</v>
       </c>
       <c r="H4">
-        <v>0.342992568415489</v>
+        <v>752.108368</v>
       </c>
       <c r="I4">
-        <v>0.001117684751079511</v>
+        <v>0.8058600807320524</v>
       </c>
       <c r="J4">
-        <v>0.001117684751079511</v>
+        <v>0.8058600807320525</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.0528430057841</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N4">
-        <v>13.0528430057841</v>
+        <v>0.188716</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.004649603600079689</v>
       </c>
       <c r="Q4">
-        <v>4.477028147678039</v>
+        <v>15.77054253060978</v>
       </c>
       <c r="R4">
-        <v>4.477028147678039</v>
+        <v>141.934882775488</v>
       </c>
       <c r="S4">
-        <v>0.001117684751079511</v>
+        <v>0.003746929932532259</v>
       </c>
       <c r="T4">
-        <v>0.001117684751079511</v>
+        <v>0.003746929932532261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>250.7027893333334</v>
+      </c>
+      <c r="H5">
+        <v>752.108368</v>
+      </c>
+      <c r="I5">
+        <v>0.8058600807320524</v>
+      </c>
+      <c r="J5">
+        <v>0.8058600807320525</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.084843</v>
+      </c>
+      <c r="N5">
+        <v>0.254529</v>
+      </c>
+      <c r="O5">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P5">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q5">
+        <v>21.270376755408</v>
+      </c>
+      <c r="R5">
+        <v>191.433390798672</v>
+      </c>
+      <c r="S5">
+        <v>0.005053637893965024</v>
+      </c>
+      <c r="T5">
+        <v>0.005053637893965026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>56.03169766666667</v>
+      </c>
+      <c r="H6">
+        <v>168.095093</v>
+      </c>
+      <c r="I6">
+        <v>0.1801085202334058</v>
+      </c>
+      <c r="J6">
+        <v>0.1801085202334059</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N6">
+        <v>39.838639</v>
+      </c>
+      <c r="O6">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P6">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q6">
+        <v>744.0755252998254</v>
+      </c>
+      <c r="R6">
+        <v>6696.679727698428</v>
+      </c>
+      <c r="S6">
+        <v>0.1767852217131544</v>
+      </c>
+      <c r="T6">
+        <v>0.1767852217131544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>56.03169766666667</v>
+      </c>
+      <c r="H7">
+        <v>168.095093</v>
+      </c>
+      <c r="I7">
+        <v>0.1801085202334058</v>
+      </c>
+      <c r="J7">
+        <v>0.1801085202334059</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.305662</v>
+      </c>
+      <c r="O7">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P7">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q7">
+        <v>5.708920257396223</v>
+      </c>
+      <c r="R7">
+        <v>51.380282316566</v>
+      </c>
+      <c r="S7">
+        <v>0.001356384801179734</v>
+      </c>
+      <c r="T7">
+        <v>0.001356384801179734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>56.03169766666667</v>
+      </c>
+      <c r="H8">
+        <v>168.095093</v>
+      </c>
+      <c r="I8">
+        <v>0.1801085202334058</v>
+      </c>
+      <c r="J8">
+        <v>0.1801085202334059</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.188716</v>
+      </c>
+      <c r="O8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P8">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q8">
+        <v>3.524692618954222</v>
+      </c>
+      <c r="R8">
+        <v>31.722233570588</v>
+      </c>
+      <c r="S8">
+        <v>0.0008374332240822693</v>
+      </c>
+      <c r="T8">
+        <v>0.0008374332240822696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>56.03169766666667</v>
+      </c>
+      <c r="H9">
+        <v>168.095093</v>
+      </c>
+      <c r="I9">
+        <v>0.1801085202334058</v>
+      </c>
+      <c r="J9">
+        <v>0.1801085202334059</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.084843</v>
+      </c>
+      <c r="N9">
+        <v>0.254529</v>
+      </c>
+      <c r="O9">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P9">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q9">
+        <v>4.753897325133001</v>
+      </c>
+      <c r="R9">
+        <v>42.785075926197</v>
+      </c>
+      <c r="S9">
+        <v>0.001129480494989486</v>
+      </c>
+      <c r="T9">
+        <v>0.001129480494989487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3995106666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.198532</v>
+      </c>
+      <c r="I10">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="J10">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N10">
+        <v>39.838639</v>
+      </c>
+      <c r="O10">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P10">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q10">
+        <v>5.30532040866089</v>
+      </c>
+      <c r="R10">
+        <v>47.747883677948</v>
+      </c>
+      <c r="S10">
+        <v>0.001260493340815787</v>
+      </c>
+      <c r="T10">
+        <v>0.001260493340815787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3995106666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.198532</v>
+      </c>
+      <c r="I11">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="J11">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.305662</v>
+      </c>
+      <c r="O11">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P11">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q11">
+        <v>0.0407050764648889</v>
+      </c>
+      <c r="R11">
+        <v>0.366345688184</v>
+      </c>
+      <c r="S11">
+        <v>9.671136494909752E-06</v>
+      </c>
+      <c r="T11">
+        <v>9.671136494909755E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3995106666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.198532</v>
+      </c>
+      <c r="I12">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="J12">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.188716</v>
+      </c>
+      <c r="O12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P12">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q12">
+        <v>0.02513135165688889</v>
+      </c>
+      <c r="R12">
+        <v>0.226182164912</v>
+      </c>
+      <c r="S12">
+        <v>5.97096856911683E-06</v>
+      </c>
+      <c r="T12">
+        <v>5.970968569116832E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3995106666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.198532</v>
+      </c>
+      <c r="I13">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="J13">
+        <v>0.001284188735791261</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.084843</v>
+      </c>
+      <c r="N13">
+        <v>0.254529</v>
+      </c>
+      <c r="O13">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P13">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q13">
+        <v>0.03389568349200001</v>
+      </c>
+      <c r="R13">
+        <v>0.3050611514280001</v>
+      </c>
+      <c r="S13">
+        <v>8.053289911447561E-06</v>
+      </c>
+      <c r="T13">
+        <v>8.053289911447563E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1167283333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.350185</v>
+      </c>
+      <c r="I14">
+        <v>0.0003752120364271146</v>
+      </c>
+      <c r="J14">
+        <v>0.0003752120364271147</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N14">
+        <v>39.838639</v>
+      </c>
+      <c r="O14">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P14">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q14">
+        <v>1.550099310912778</v>
+      </c>
+      <c r="R14">
+        <v>13.950893798215</v>
+      </c>
+      <c r="S14">
+        <v>0.00036828875704076</v>
+      </c>
+      <c r="T14">
+        <v>0.0003682887570407601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1167283333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.350185</v>
+      </c>
+      <c r="I15">
+        <v>0.0003752120364271146</v>
+      </c>
+      <c r="J15">
+        <v>0.0003752120364271147</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.305662</v>
+      </c>
+      <c r="O15">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P15">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q15">
+        <v>0.01189313860777778</v>
+      </c>
+      <c r="R15">
+        <v>0.10703824747</v>
+      </c>
+      <c r="S15">
+        <v>2.825695879183844E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.825695879183845E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1167283333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.350185</v>
+      </c>
+      <c r="I16">
+        <v>0.0003752120364271146</v>
+      </c>
+      <c r="J16">
+        <v>0.0003752120364271147</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.188716</v>
+      </c>
+      <c r="O16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P16">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q16">
+        <v>0.007342834717777778</v>
+      </c>
+      <c r="R16">
+        <v>0.06608551246000001</v>
+      </c>
+      <c r="S16">
+        <v>1.744587235364743E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.744587235364744E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1167283333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.350185</v>
+      </c>
+      <c r="I17">
+        <v>0.0003752120364271146</v>
+      </c>
+      <c r="J17">
+        <v>0.0003752120364271147</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.084843</v>
+      </c>
+      <c r="N17">
+        <v>0.254529</v>
+      </c>
+      <c r="O17">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P17">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q17">
+        <v>0.009903581985</v>
+      </c>
+      <c r="R17">
+        <v>0.08913223786500001</v>
+      </c>
+      <c r="S17">
+        <v>2.352996271806062E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.352996271806063E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.31642247169294</v>
-      </c>
-      <c r="H5">
-        <v>2.31642247169294</v>
-      </c>
-      <c r="I5">
-        <v>0.007548356180513076</v>
-      </c>
-      <c r="J5">
-        <v>0.007548356180513076</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>13.0528430057841</v>
-      </c>
-      <c r="N5">
-        <v>13.0528430057841</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>30.23589885807831</v>
-      </c>
-      <c r="R5">
-        <v>30.23589885807831</v>
-      </c>
-      <c r="S5">
-        <v>0.007548356180513076</v>
-      </c>
-      <c r="T5">
-        <v>0.007548356180513076</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.848924333333333</v>
+      </c>
+      <c r="H18">
+        <v>11.546773</v>
+      </c>
+      <c r="I18">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="J18">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13.27954633333333</v>
+      </c>
+      <c r="N18">
+        <v>39.838639</v>
+      </c>
+      <c r="O18">
+        <v>0.9815483547588711</v>
+      </c>
+      <c r="P18">
+        <v>0.9815483547588713</v>
+      </c>
+      <c r="Q18">
+        <v>51.11196901799411</v>
+      </c>
+      <c r="R18">
+        <v>460.007721161947</v>
+      </c>
+      <c r="S18">
+        <v>0.01214371453946288</v>
+      </c>
+      <c r="T18">
+        <v>0.01214371453946288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.848924333333333</v>
+      </c>
+      <c r="H19">
+        <v>11.546773</v>
+      </c>
+      <c r="I19">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="J19">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1018873333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.305662</v>
+      </c>
+      <c r="O19">
+        <v>0.007530930793401502</v>
+      </c>
+      <c r="P19">
+        <v>0.007530930793401503</v>
+      </c>
+      <c r="Q19">
+        <v>0.3921566365251111</v>
+      </c>
+      <c r="R19">
+        <v>3.529409728726</v>
+      </c>
+      <c r="S19">
+        <v>9.317266268963911E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.317266268963913E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.848924333333333</v>
+      </c>
+      <c r="H20">
+        <v>11.546773</v>
+      </c>
+      <c r="I20">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="J20">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.188716</v>
+      </c>
+      <c r="O20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="P20">
+        <v>0.004649603600079689</v>
+      </c>
+      <c r="Q20">
+        <v>0.2421178681631111</v>
+      </c>
+      <c r="R20">
+        <v>2.179060813468</v>
+      </c>
+      <c r="S20">
+        <v>5.752488766067726E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.752488766067728E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.848924333333333</v>
+      </c>
+      <c r="H21">
+        <v>11.546773</v>
+      </c>
+      <c r="I21">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="J21">
+        <v>0.01237199826232313</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.084843</v>
+      </c>
+      <c r="N21">
+        <v>0.254529</v>
+      </c>
+      <c r="O21">
+        <v>0.006271110847647699</v>
+      </c>
+      <c r="P21">
+        <v>0.0062711108476477</v>
+      </c>
+      <c r="Q21">
+        <v>0.326554287213</v>
+      </c>
+      <c r="R21">
+        <v>2.938988584917</v>
+      </c>
+      <c r="S21">
+        <v>7.758617250993304E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.758617250993307E-05</v>
       </c>
     </row>
   </sheetData>
